--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.394</v>
+        <v>-22.13</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.842</v>
+        <v>-11.626</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.453999999999999</v>
+        <v>-7.476000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-22.448</v>
+        <v>-22.052</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,18 +642,18 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>6.49</v>
+        <v>5.417999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.965999999999999</v>
+        <v>-8.084999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.528</v>
+        <v>-22.341</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -687,10 +687,10 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.658</v>
+        <v>-12.995</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.184000000000001</v>
+        <v>-7.997</v>
       </c>
     </row>
     <row r="19">
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.008</v>
+        <v>-12.038</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,16 +723,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.124</v>
+        <v>-21.042</v>
       </c>
       <c r="B21" t="n">
-        <v>7.044</v>
+        <v>6.976000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.698</v>
+        <v>-8.243</v>
       </c>
     </row>
     <row r="22">
@@ -740,18 +740,18 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.09</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.209999999999999</v>
+        <v>-8.074999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.764</v>
+        <v>-21.054</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,18 +768,18 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.058</v>
+        <v>5.483000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.95</v>
+        <v>-7.744999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.824</v>
+        <v>-21.706</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.166</v>
+        <v>-21.123</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>7.256</v>
+        <v>6.155000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>7.076000000000001</v>
+        <v>6.111000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.124</v>
+        <v>-21.498</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -900,7 +900,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.409999999999999</v>
+        <v>-7.308</v>
       </c>
     </row>
     <row r="34">
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.038</v>
+        <v>-12.385</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.613999999999999</v>
+        <v>7.58</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.774000000000001</v>
+        <v>7.487</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.01</v>
+        <v>-21.144</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.598</v>
+        <v>-12.221</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.132</v>
+        <v>5.451000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.193999999999999</v>
+        <v>-8.113</v>
       </c>
     </row>
     <row r="47">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.44</v>
+        <v>-12.152</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,13 +1118,13 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.622</v>
+        <v>6.291000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.277999999999999</v>
+        <v>-8.111999999999998</v>
       </c>
     </row>
     <row r="50">
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.004</v>
+        <v>-13.422</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.974</v>
+        <v>-11.709</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,10 +1160,10 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.89</v>
+        <v>5.356</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.76</v>
+        <v>-11.218</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.63</v>
+        <v>-21.346</v>
       </c>
       <c r="B53" t="n">
-        <v>6.354</v>
+        <v>6.206999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>6.096</v>
+        <v>5.711</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.574</v>
+        <v>-13.445</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1222,18 +1222,18 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.050000000000001</v>
+        <v>-7.673</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.454</v>
+        <v>-21.682</v>
       </c>
       <c r="B57" t="n">
-        <v>4.972</v>
+        <v>6.129</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.844</v>
+        <v>-12.988</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1247,7 +1247,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.446</v>
+        <v>-12.943</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22</v>
+        <v>-22.396</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.18</v>
+        <v>-8.032</v>
       </c>
     </row>
     <row r="62">
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.416</v>
+        <v>-10.967</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.918</v>
+        <v>-21.728</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.702000000000001</v>
+        <v>-7.328</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.384</v>
+        <v>-11.675</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.334000000000001</v>
+        <v>-7.556</v>
       </c>
     </row>
     <row r="67">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.616</v>
+        <v>-21.555</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.698</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.996</v>
+        <v>4.972</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.219999999999999</v>
+        <v>-8.081</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.826000000000001</v>
+        <v>-7.621</v>
       </c>
     </row>
     <row r="76">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.273999999999999</v>
+        <v>-7.744</v>
       </c>
     </row>
     <row r="78">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.002</v>
+        <v>-21.084</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.29</v>
+        <v>-12.108</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.988</v>
+        <v>-22.022</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-11.81</v>
+        <v>-12.615</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>6.23</v>
+        <v>5.555000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,13 +1650,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.159999999999999</v>
+        <v>4.834999999999999</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.290000000000001</v>
+        <v>-8.378</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.688</v>
+        <v>-7.605000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.722</v>
+        <v>5.747999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.584</v>
+        <v>-21.173</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.24</v>
+        <v>-10.97</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.664</v>
+        <v>-21.628</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-12.592</v>
+        <v>-11.935</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.636</v>
+        <v>-11.655</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.21</v>
+        <v>-11.155</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.934</v>
+        <v>-22.043</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.578</v>
+        <v>-7.722</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.004</v>
+        <v>5.436</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.29</v>
+        <v>-11.619</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.388</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.884</v>
+        <v>-21.969</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
